--- a/DOC/定时任务清单.xlsx
+++ b/DOC/定时任务清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>应用名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,51 @@
   </si>
   <si>
     <t>凌晨2点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单到货提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养提醒
+商业险到期
+交强险到期
+车辆年检
+驾照年审
+客户生日
+员工生日
+流失回访</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户回访</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新套餐使用次数
+更新项目使用次数
+更新配件使用次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子档案上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除扫码登录记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最近一个小时车架号为空或者车型为空的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取车架号为空且处理次数小于2的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取车型全称为空且车架号不为空且车架号长度为17且没有处理过的数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -486,15 +531,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="49.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="66.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -521,9 +566,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -533,7 +580,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -545,9 +594,11 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,7 +608,9 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -569,9 +622,11 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -581,9 +636,11 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -593,7 +650,9 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -605,7 +664,9 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -617,7 +678,9 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DOC/定时任务清单.xlsx
+++ b/DOC/定时任务清单.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>应用名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,10 +58,6 @@
     <t>每日早8点</t>
   </si>
   <si>
-    <t>com.hsapi.repair.repairService.timersettle.updateUseTimes.biz.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每晚11点30分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,22 +67,6 @@
   </si>
   <si>
     <t>com.hsapi.system.auth.timer.clearQrcode.biz.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.service.timer.getCarNO.biz.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.service.timer.handleCarVin.biz.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.service.timer.initCarModelFullNameByVin.biz.ext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.repair.repairService.timersettle.syncElectronicArchives.biz.ext</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -127,11 +107,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>com.hsapi.repair.repairService.timersettle.updateUseTimes.biz.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.repairService.timersettle.syncElectronicArchives.biz.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.service.timer.getCarNO.biz.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>获取最近一个小时车架号为空或者车型为空的数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>com.hsapi.system.service.timer.handleCarVin.biz.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>获取车架号为空且处理次数小于2的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.service.timer.initCarModelFullNameByVin.biz.ext</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -167,12 +171,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -196,6 +206,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,13 +544,13 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="2" max="2" width="65.625" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="66.875" customWidth="1"/>
   </cols>
@@ -567,49 +580,49 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -617,49 +630,49 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -668,18 +681,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
